--- a/excel_workbooks/average_daily_rides.xlsx
+++ b/excel_workbooks/average_daily_rides.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="average_daily_rides.csv" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -539,8 +539,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,20 +614,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1542,11 +1662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110546456"/>
-        <c:axId val="-2115965112"/>
+        <c:axId val="-2018768136"/>
+        <c:axId val="-2018840712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110546456"/>
+        <c:axId val="-2018768136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="145.0"/>
@@ -1604,14 +1724,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115965112"/>
+        <c:crossAx val="-2018840712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
         <c:minorUnit val="4.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2115965112"/>
+        <c:axId val="-2018840712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14500.0"/>
@@ -1619,6 +1739,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1643,7 +1764,7 @@
                     <a:latin typeface="Arial"/>
                     <a:cs typeface="Arial"/>
                   </a:rPr>
-                  <a:t> Fares</a:t>
+                  <a:t> Throughput</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:latin typeface="Arial"/>
@@ -1666,7 +1787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110546456"/>
+        <c:crossAx val="-2018768136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000.0"/>
@@ -1677,6 +1798,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -2044,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2054,22 +2180,22 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="16" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="16" thickTop="1">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>17863</v>
       </c>
       <c r="C2">
@@ -2077,10 +2203,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>15735</v>
       </c>
       <c r="C3">
@@ -2088,10 +2214,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>14256</v>
       </c>
       <c r="C4">
@@ -2099,10 +2225,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>11964</v>
       </c>
       <c r="C5">
@@ -2110,10 +2236,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>11588</v>
       </c>
       <c r="C6">
@@ -2121,10 +2247,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>11363</v>
       </c>
       <c r="C7">
@@ -2132,10 +2258,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>10662</v>
       </c>
       <c r="C8">
@@ -2143,10 +2269,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>10190</v>
       </c>
       <c r="C9">
@@ -2154,10 +2280,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>9490</v>
       </c>
       <c r="C10">
@@ -2165,10 +2291,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>9149</v>
       </c>
       <c r="C11">
@@ -2176,10 +2302,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>8995</v>
       </c>
       <c r="C12">
@@ -2187,10 +2313,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>8894</v>
       </c>
       <c r="C13">
